--- a/biology/Médecine/Ostéoplaste/Ostéoplaste.xlsx
+++ b/biology/Médecine/Ostéoplaste/Ostéoplaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9oplaste</t>
+          <t>Ostéoplaste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un ostéoplaste est un espace libre de la matrice extracellulaire de l'os, situé dans la matière dure du tissu osseux, contenant la cellule osseuse dérivée de l'ostéoblaste dite ostéocyte qu'il entoure[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ostéoplaste est un espace libre de la matrice extracellulaire de l'os, situé dans la matière dure du tissu osseux, contenant la cellule osseuse dérivée de l'ostéoblaste dite ostéocyte qu'il entoure,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9oplaste</t>
+          <t>Ostéoplaste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un ostéoplaste est une espace creux au sein de l'os comprenant d'une part une cavité étoilée irrégulière et d'autre part des canalicules qui chacun partent d'une des pointes de l'étoile. Léo Testut les comparait aux racines chevelues de certaines plantes[3]. On les désigne sous le nom de canalicules osseux. Les ostéoplastes se trouvent principalement dans les lamelles osseuses, leurs formes et leurs tailles sont très variables (de 20 à 45 micromètres de long). Les canalicules issus d'un ostéoplaste cheminent à travers la matrice extracellulaire, ils sont très fins et sinueux et s'anastomosent aux canalicules issus d'autre ostéoplastes constituant ainsi un réseau de voies à l'intérieur de l'os calcifié[3]. Dans ces canalicules circulent les prolongements cytoplasmiques de l'ostéocyte hôte de l'ostéoplaste[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ostéoplaste est une espace creux au sein de l'os comprenant d'une part une cavité étoilée irrégulière et d'autre part des canalicules qui chacun partent d'une des pointes de l'étoile. Léo Testut les comparait aux racines chevelues de certaines plantes. On les désigne sous le nom de canalicules osseux. Les ostéoplastes se trouvent principalement dans les lamelles osseuses, leurs formes et leurs tailles sont très variables (de 20 à 45 micromètres de long). Les canalicules issus d'un ostéoplaste cheminent à travers la matrice extracellulaire, ils sont très fins et sinueux et s'anastomosent aux canalicules issus d'autre ostéoplastes constituant ainsi un réseau de voies à l'intérieur de l'os calcifié. Dans ces canalicules circulent les prolongements cytoplasmiques de l'ostéocyte hôte de l'ostéoplaste.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9oplaste</t>
+          <t>Ostéoplaste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur existence est d'abord décrite en 1834 par Jan Evangelista Purkinje[3] et complète la connaissance intime de la structure osseuse à un niveau encore plus petit que l'approche haversienne due à Clopton Havers et ses ostéons ou ostéones.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur existence est d'abord décrite en 1834 par Jan Evangelista Purkinje et complète la connaissance intime de la structure osseuse à un niveau encore plus petit que l'approche haversienne due à Clopton Havers et ses ostéons ou ostéones.
 </t>
         </is>
       </c>
